--- a/2017DStats.xlsx
+++ b/2017DStats.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barlo\OneDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbraxton/Documents/STOR 390/Playoff 2/Project-2-STOR-390/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E74B5FC-E876-654E-80DF-51BE86C66E95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +45,6 @@
     <t>Turnovers</t>
   </si>
   <si>
-    <t>Rk</t>
-  </si>
-  <si>
     <t>School</t>
   </si>
   <si>
@@ -489,13 +487,16 @@
   </si>
   <si>
     <t>East Carolina</t>
+  </si>
+  <si>
+    <t>D.Rank17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +508,7 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -813,14 +815,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="E1" t="s">
         <v>0</v>
@@ -886,89 +890,89 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -1040,12 +1044,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -1117,12 +1121,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>14</v>
@@ -1194,12 +1198,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -1271,12 +1275,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>13</v>
@@ -1348,12 +1352,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -1425,12 +1429,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -1502,12 +1506,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -1579,12 +1583,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1656,12 +1660,12 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -1733,12 +1737,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>14</v>
@@ -1810,12 +1814,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1887,12 +1891,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -1964,12 +1968,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>13</v>
@@ -2041,12 +2045,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -2118,12 +2122,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -2195,12 +2199,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -2272,12 +2276,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -2349,12 +2353,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>13</v>
@@ -2426,12 +2430,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -2503,12 +2507,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -2580,12 +2584,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24">
         <v>13</v>
@@ -2657,12 +2661,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -2734,12 +2738,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -2811,12 +2815,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -2888,12 +2892,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -2965,12 +2969,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29">
         <v>13</v>
@@ -3042,12 +3046,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30">
         <v>13</v>
@@ -3119,12 +3123,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31">
         <v>13</v>
@@ -3196,12 +3200,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32">
         <v>13</v>
@@ -3273,12 +3277,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>13</v>
@@ -3350,12 +3354,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>13</v>
@@ -3427,12 +3431,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>13</v>
@@ -3504,12 +3508,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36">
         <v>14</v>
@@ -3581,12 +3585,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37">
         <v>14</v>
@@ -3658,12 +3662,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38">
         <v>13</v>
@@ -3735,12 +3739,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -3812,12 +3816,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40">
         <v>14</v>
@@ -3889,12 +3893,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41">
         <v>13</v>
@@ -3966,12 +3970,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>12</v>
@@ -4043,12 +4047,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43">
         <v>12</v>
@@ -4120,12 +4124,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44">
         <v>12</v>
@@ -4197,12 +4201,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45">
         <v>12</v>
@@ -4274,12 +4278,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46">
         <v>13</v>
@@ -4351,12 +4355,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47">
         <v>13</v>
@@ -4428,12 +4432,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48">
         <v>13</v>
@@ -4505,12 +4509,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49">
         <v>13</v>
@@ -4582,12 +4586,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50">
         <v>12</v>
@@ -4659,12 +4663,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51">
         <v>12</v>
@@ -4736,12 +4740,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52">
         <v>13</v>
@@ -4813,12 +4817,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53">
         <v>13</v>
@@ -4890,12 +4894,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54">
         <v>12</v>
@@ -4967,12 +4971,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55">
         <v>13</v>
@@ -5044,12 +5048,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56">
         <v>13</v>
@@ -5121,12 +5125,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57">
         <v>13</v>
@@ -5198,12 +5202,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58">
         <v>12</v>
@@ -5275,12 +5279,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59">
         <v>12</v>
@@ -5352,12 +5356,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60">
         <v>13</v>
@@ -5429,12 +5433,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61">
         <v>13</v>
@@ -5506,12 +5510,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62">
         <v>14</v>
@@ -5583,12 +5587,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63">
         <v>14</v>
@@ -5660,12 +5664,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64">
         <v>13</v>
@@ -5737,12 +5741,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65">
         <v>11</v>
@@ -5814,12 +5818,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66">
         <v>12</v>
@@ -5891,12 +5895,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67">
         <v>12</v>
@@ -5968,12 +5972,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68">
         <v>13</v>
@@ -6045,12 +6049,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69">
         <v>13</v>
@@ -6122,12 +6126,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70">
         <v>14</v>
@@ -6199,12 +6203,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71">
         <v>11</v>
@@ -6276,12 +6280,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C72">
         <v>13</v>
@@ -6353,12 +6357,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73">
         <v>13</v>
@@ -6430,12 +6434,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74">
         <v>13</v>
@@ -6507,12 +6511,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75">
         <v>14</v>
@@ -6584,12 +6588,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C76">
         <v>12</v>
@@ -6661,12 +6665,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77">
         <v>13</v>
@@ -6738,12 +6742,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78">
         <v>12</v>
@@ -6815,12 +6819,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79">
         <v>13</v>
@@ -6892,12 +6896,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80">
         <v>12</v>
@@ -6969,12 +6973,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81">
         <v>13</v>
@@ -7046,12 +7050,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82">
         <v>13</v>
@@ -7123,12 +7127,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83">
         <v>13</v>
@@ -7200,12 +7204,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84">
         <v>12</v>
@@ -7277,12 +7281,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C85">
         <v>12</v>
@@ -7354,12 +7358,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C86">
         <v>12</v>
@@ -7431,12 +7435,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C87">
         <v>13</v>
@@ -7508,12 +7512,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C88">
         <v>13</v>
@@ -7585,12 +7589,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C89">
         <v>13</v>
@@ -7662,12 +7666,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C90">
         <v>12</v>
@@ -7739,12 +7743,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C91">
         <v>12</v>
@@ -7816,12 +7820,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C92">
         <v>12</v>
@@ -7893,12 +7897,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C93">
         <v>13</v>
@@ -7970,12 +7974,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C94">
         <v>12</v>
@@ -8047,12 +8051,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C95">
         <v>12</v>
@@ -8124,12 +8128,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C96">
         <v>12</v>
@@ -8201,12 +8205,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C97">
         <v>13</v>
@@ -8278,12 +8282,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C98">
         <v>12</v>
@@ -8355,12 +8359,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C99">
         <v>12</v>
@@ -8432,12 +8436,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C100">
         <v>12</v>
@@ -8509,12 +8513,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C101">
         <v>12</v>
@@ -8586,12 +8590,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C102">
         <v>13</v>
@@ -8663,12 +8667,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C103">
         <v>12</v>
@@ -8740,12 +8744,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C104">
         <v>13</v>
@@ -8817,12 +8821,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C105">
         <v>13</v>
@@ -8894,12 +8898,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C106">
         <v>12</v>
@@ -8971,12 +8975,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C107">
         <v>12</v>
@@ -9048,12 +9052,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C108">
         <v>12</v>
@@ -9125,12 +9129,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -9202,12 +9206,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C110">
         <v>12</v>
@@ -9279,12 +9283,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C111">
         <v>13</v>
@@ -9356,12 +9360,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C112">
         <v>12</v>
@@ -9433,12 +9437,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C113">
         <v>14</v>
@@ -9510,12 +9514,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C114">
         <v>12</v>
@@ -9587,12 +9591,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C115">
         <v>12</v>
@@ -9664,12 +9668,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C116">
         <v>12</v>
@@ -9741,12 +9745,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C117">
         <v>12</v>
@@ -9818,12 +9822,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C118">
         <v>12</v>
@@ -9895,12 +9899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C119">
         <v>13</v>
@@ -9972,12 +9976,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C120">
         <v>13</v>
@@ -10049,12 +10053,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C121">
         <v>12</v>
@@ -10126,12 +10130,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C122">
         <v>12</v>
@@ -10203,12 +10207,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C123">
         <v>12</v>
@@ -10280,12 +10284,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C124">
         <v>12</v>
@@ -10357,12 +10361,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C125">
         <v>12</v>
@@ -10434,12 +10438,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C126">
         <v>12</v>
@@ -10511,12 +10515,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C127">
         <v>12</v>
@@ -10588,12 +10592,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C128">
         <v>12</v>
@@ -10665,12 +10669,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C129">
         <v>13</v>
@@ -10742,12 +10746,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C130">
         <v>12</v>
@@ -10819,12 +10823,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C131">
         <v>12</v>
@@ -10896,12 +10900,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C132">
         <v>12</v>
